--- a/wiki/img/stocktest/stocktest_txd_20200306.xlsx
+++ b/wiki/img/stocktest/stocktest_txd_20200306.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>买入价</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>劲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一涨幅满足位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,31 +69,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>劲线-底点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劲线+高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底点到劲线距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同兴达2020-03-04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有效突破颈线附近买入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劲线+高度*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劲线+高度*3</t>
+    <t>颈线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底点到颈线距离</t>
+  </si>
+  <si>
+    <t>颈线+高度</t>
+  </si>
+  <si>
+    <t>颈线+高度*2</t>
+  </si>
+  <si>
+    <t>颈线+高度*3</t>
+  </si>
+  <si>
+    <t>鱼跃医疗2020-01-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩张三角形底</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,7 +101,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以疫情时低点做底点</t>
+    <t>止损位幅度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在有效突破颈线附近买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/9/20自22.67下跌最低至16.50，经过4个月振荡上行，2020/3/4放量在22.40突破颈线，确立扩张三角形底形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自2019/4/3的26.68下跌，至2019/12/3最低至18.2。2020/1/21跳空放量在22.20有效突破劲线，收盘价22.61，应为下飘旗形底形态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/10/17从15.34起涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在有效突破颈线后，第二天买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下飘旗形底，颈线位设为突破点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止赢位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈线*(1+止损幅度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈线-底点=高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈线突破点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗形左顶点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗形右低点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗形左低点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/4转拆向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗形右低点+(旗形左顶点-旗形左低点)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因疫情医疗行业大涨，2020/2/4达到31.88，后又涨至36.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,27 +265,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -495,282 +600,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>14</v>
+      <c r="A1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20.9</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B5" s="6">
         <v>17.079999999999998</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>20.9</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>22.4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11">
+        <v>-0.05</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
-        <f>B4*(1+D6)</f>
-        <v>20.273</v>
-      </c>
-      <c r="C6" s="10">
-        <f>B6/B$5-1</f>
-        <v>-9.8977777777777831E-2</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B8" s="12">
+        <f>B4*(1+B7)</f>
+        <v>19.854999999999997</v>
+      </c>
+      <c r="C8" s="11">
+        <f>1-B8/B6</f>
+        <v>0.11361607142857155</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9">
+        <f>B4-B5</f>
+        <v>3.8200000000000003</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <f>B4+B9</f>
+        <v>24.72</v>
+      </c>
+      <c r="C10" s="13">
+        <f>B10/B$6-1</f>
+        <v>0.10357142857142865</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B10+B9</f>
+        <v>28.54</v>
+      </c>
+      <c r="C11" s="13">
+        <f>B11/B$6-1</f>
+        <v>0.27410714285714288</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6">
+        <f>B11+B9</f>
+        <v>32.36</v>
+      </c>
+      <c r="C12" s="13">
+        <f>B12/B$6-1</f>
+        <v>0.44464285714285712</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6">
+        <v>21.45</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6">
+        <v>26.68</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6">
+        <v>15.34</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9">
+        <v>21.61</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <f>B4-B3</f>
-        <v>3.8200000000000003</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7">
-        <f>B4+B7</f>
-        <v>24.72</v>
-      </c>
-      <c r="C8" s="12">
-        <f>B8/B$5-1</f>
-        <v>9.866666666666668E-2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7">
-        <f>B8+B7</f>
-        <v>28.54</v>
-      </c>
-      <c r="C9" s="12">
-        <f>B9/B$5-1</f>
-        <v>0.26844444444444449</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7">
-        <f>B9+B7</f>
-        <v>32.36</v>
-      </c>
-      <c r="C10" s="12">
-        <f>B10/B$5-1</f>
-        <v>0.43822222222222229</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7">
-        <v>15.8</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7">
-        <v>20.9</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="9">
-        <f>B15*(1+D17)</f>
-        <v>20.273</v>
-      </c>
-      <c r="C17" s="10">
-        <f>B17/B$5-1</f>
-        <v>-9.8977777777777831E-2</v>
-      </c>
-      <c r="D17" s="11">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3">
-        <f>B15-B14</f>
-        <v>5.0999999999999979</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="7">
-        <f>B15+B18</f>
-        <v>25.999999999999996</v>
-      </c>
-      <c r="C19" s="12">
-        <f>B19/B$5-1</f>
-        <v>0.15555555555555545</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="7">
-        <f>B19+B18</f>
-        <v>31.099999999999994</v>
-      </c>
-      <c r="C20" s="12">
-        <f>B20/B$5-1</f>
-        <v>0.38222222222222202</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="7">
-        <f>B20+B18</f>
-        <v>36.199999999999989</v>
-      </c>
-      <c r="C21" s="12">
-        <f>B21/B$5-1</f>
-        <v>0.60888888888888837</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B23" s="12">
+        <f>B17*(1+B22)</f>
+        <v>20.8065</v>
+      </c>
+      <c r="C23" s="11">
+        <f>1-B23/B21</f>
+        <v>3.7181860249884346E-2</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="9">
+        <f>B20+(B18-B19)</f>
+        <v>29.54</v>
+      </c>
+      <c r="C24" s="14">
+        <f>B24/B21-1</f>
+        <v>0.36695974086071259</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>